--- a/data/trans_bre/P21D_2_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P21D_2_R-Habitat-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-0.5288184643520762</v>
+        <v>-0.5288184643520766</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-0.1652745008991084</v>
+        <v>-0.1652745008991085</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.267741365873705</v>
+        <v>-3.125851167683623</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.677408274723916</v>
+        <v>-0.6492421645642944</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.767514234557746</v>
+        <v>1.69033834298628</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1.070652947269266</v>
+        <v>1.045018574904699</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         <v>1.033192723281598</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.9863413455133769</v>
+        <v>0.9863413455133766</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.4617980642557286</v>
+        <v>-0.3267825042606486</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.471436342313313</v>
+        <v>-0.3769683106355158</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.883932454978959</v>
+        <v>2.836398642639044</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>6.61086158283203</v>
+        <v>7.137786534627544</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-1.713052664773922</v>
+        <v>-1.713052664773923</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-0.4124752497703508</v>
+        <v>-0.4124752497703509</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.911291308604948</v>
+        <v>-4.80012706571625</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.7585064734552671</v>
+        <v>-0.7549861573696105</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.702183893905061</v>
+        <v>0.6132122432106206</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.3665425458165302</v>
+        <v>0.4062558445976789</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>1.627876210242724</v>
+        <v>1.627876210242725</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>1.877676249811493</v>
+        <v>1.877676249811494</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0544291498074208</v>
+        <v>0.2114006490884889</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1383229312544238</v>
+        <v>-0.04975043085739048</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.067997755034596</v>
+        <v>3.162922883330378</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8.93346157124876</v>
+        <v>10.14990191079644</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.2544285324725982</v>
+        <v>0.2544285324725979</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.1189618948642544</v>
+        <v>0.1189618948642543</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7004348729737142</v>
+        <v>-0.9139104088364782</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.2643209334093309</v>
+        <v>-0.3292097417572833</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.311733990808221</v>
+        <v>1.193894748848389</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.7812669614159334</v>
+        <v>0.6816269865366101</v>
       </c>
     </row>
     <row r="19">
